--- a/CRF.xlsx
+++ b/CRF.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode-workspace\accenture\react-magneto-v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D57C1-240E-4E91-9552-273A08CEE20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,9 +135,6 @@
     <t>SearchField</t>
   </si>
   <si>
-    <t>outlinedSearch</t>
-  </si>
-  <si>
     <t>search</t>
   </si>
   <si>
@@ -331,13 +334,16 @@
   </si>
   <si>
     <t>materialUi</t>
+  </si>
+  <si>
+    <t>outlinedSearch1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -480,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -674,36 +680,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,21 +759,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -775,7 +781,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -793,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -801,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -816,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -830,13 +836,13 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -857,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -865,13 +871,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -883,19 +889,19 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -903,13 +909,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -924,7 +930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -932,13 +938,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -953,7 +959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -961,13 +967,13 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -982,7 +988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -990,13 +996,13 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1008,19 +1014,19 @@
         <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1028,13 +1034,13 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1046,19 +1052,19 @@
         <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1066,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -1081,13 +1087,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
         <v>88</v>
       </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1095,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1110,13 +1116,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1124,13 +1130,13 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -1142,19 +1148,19 @@
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1162,13 +1168,13 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -1189,7 +1195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1197,13 +1203,13 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1224,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1232,13 +1238,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -1247,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1261,13 +1267,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -1279,19 +1285,19 @@
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1299,13 +1305,13 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1314,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1328,13 +1334,13 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1343,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1357,13 +1363,13 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1372,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1386,13 +1392,13 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
         <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -1401,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1412,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -1427,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1441,13 +1447,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
         <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -1459,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
         <v>25</v>
@@ -1474,24 +1480,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>99</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>101</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
